--- a/data/GEI.xlsx
+++ b/data/GEI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorjuliosanchezpollo/Gender-App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37804066-C6ED-8144-B6D9-52E0B84CCCE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED459DB-C445-E144-B585-65F478A57C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="24900" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
   <si>
     <t>Overall Gender Equality Index</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -172,23 +169,31 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,17 +232,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -246,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,10 +569,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -929,8 +923,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
+      <c r="A6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>2020</v>
@@ -1001,7 +995,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -1072,7 +1066,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>2020</v>
@@ -1143,7 +1137,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <v>2020</v>
@@ -1214,7 +1208,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>2020</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>2020</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>2020</v>
@@ -1427,7 +1421,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>2020</v>
@@ -1569,7 +1563,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>2020</v>
@@ -1640,7 +1634,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>2020</v>
@@ -1711,7 +1705,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <v>2020</v>
@@ -1782,7 +1776,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>2020</v>
@@ -1853,7 +1847,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>2020</v>
@@ -1924,7 +1918,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>2020</v>
@@ -1995,7 +1989,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>2020</v>
@@ -2066,7 +2060,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>2020</v>
@@ -2137,7 +2131,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>2020</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
         <v>2020</v>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>2020</v>
@@ -2350,7 +2344,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
         <v>2020</v>
@@ -2421,7 +2415,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
         <v>2020</v>
@@ -2492,7 +2486,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
         <v>2020</v>
@@ -2563,7 +2557,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>2020</v>
@@ -2634,7 +2628,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>2020</v>
@@ -2704,8 +2698,8 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>50</v>
+      <c r="A31" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>2020</v>
@@ -2778,7 +2772,7 @@
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>2019</v>
       </c>
       <c r="C32" s="1">
@@ -2849,7 +2843,7 @@
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>2019</v>
       </c>
       <c r="C33" s="1">
@@ -2920,7 +2914,7 @@
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>2019</v>
       </c>
       <c r="C34" s="1">
@@ -2991,7 +2985,7 @@
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>2019</v>
       </c>
       <c r="C35" s="1">
@@ -3059,10 +3053,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2">
         <v>2019</v>
       </c>
       <c r="C36" s="1">
@@ -3131,9 +3125,9 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="3">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2">
         <v>2019</v>
       </c>
       <c r="C37" s="1">
@@ -3202,9 +3196,9 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2">
         <v>2019</v>
       </c>
       <c r="C38" s="1">
@@ -3273,9 +3267,9 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="3">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2">
         <v>2019</v>
       </c>
       <c r="C39" s="1">
@@ -3344,9 +3338,9 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="3">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
         <v>2019</v>
       </c>
       <c r="C40" s="1">
@@ -3415,9 +3409,9 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2">
         <v>2019</v>
       </c>
       <c r="C41" s="1">
@@ -3485,10 +3479,10 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2">
         <v>2019</v>
       </c>
       <c r="C42" s="1">
@@ -3557,9 +3551,9 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="3">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2">
         <v>2019</v>
       </c>
       <c r="C43" s="1">
@@ -3628,9 +3622,9 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="3">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2">
         <v>2019</v>
       </c>
       <c r="C44" s="1">
@@ -3699,9 +3693,9 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="3">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2">
         <v>2019</v>
       </c>
       <c r="C45" s="1">
@@ -3770,9 +3764,9 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="3">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2">
         <v>2019</v>
       </c>
       <c r="C46" s="1">
@@ -3841,9 +3835,9 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
         <v>2019</v>
       </c>
       <c r="C47" s="1">
@@ -3912,9 +3906,9 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="3">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2">
         <v>2019</v>
       </c>
       <c r="C48" s="1">
@@ -3983,9 +3977,9 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="3">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2">
         <v>2019</v>
       </c>
       <c r="C49" s="1">
@@ -4054,9 +4048,9 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="3">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2">
         <v>2019</v>
       </c>
       <c r="C50" s="1">
@@ -4125,9 +4119,9 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="3">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
         <v>2019</v>
       </c>
       <c r="C51" s="1">
@@ -4196,9 +4190,9 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="3">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2">
         <v>2019</v>
       </c>
       <c r="C52" s="1">
@@ -4267,9 +4261,9 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3">
+        <v>41</v>
+      </c>
+      <c r="B53" s="2">
         <v>2019</v>
       </c>
       <c r="C53" s="1">
@@ -4338,9 +4332,9 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="3">
+        <v>42</v>
+      </c>
+      <c r="B54" s="2">
         <v>2019</v>
       </c>
       <c r="C54" s="1">
@@ -4409,9 +4403,9 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="3">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2">
         <v>2019</v>
       </c>
       <c r="C55" s="1">
@@ -4480,9 +4474,9 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="3">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2">
         <v>2019</v>
       </c>
       <c r="C56" s="1">
@@ -4551,9 +4545,9 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="3">
+        <v>45</v>
+      </c>
+      <c r="B57" s="2">
         <v>2019</v>
       </c>
       <c r="C57" s="1">
@@ -4622,9 +4616,9 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="3">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2">
         <v>2019</v>
       </c>
       <c r="C58" s="1">
@@ -4693,9 +4687,9 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3">
+        <v>47</v>
+      </c>
+      <c r="B59" s="2">
         <v>2019</v>
       </c>
       <c r="C59" s="1">
@@ -4764,9 +4758,9 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="3">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2">
         <v>2019</v>
       </c>
       <c r="C60" s="1">
@@ -4834,10 +4828,10 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="A61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2">
         <v>2019</v>
       </c>
       <c r="C61" s="1">
@@ -4902,6 +4896,6396 @@
       </c>
       <c r="W61" s="1">
         <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E62" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F62" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="H62" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="I62" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="J62" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>72</v>
+      </c>
+      <c r="L62" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="N62" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="O62" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="P62" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="R62" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S62" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="T62" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="U62" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="V62" s="1">
+        <v>96</v>
+      </c>
+      <c r="W62" s="1">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="I63" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="J63" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="K63" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="M63" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="N63" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="O63" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="P63" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="R63" s="1">
+        <v>38</v>
+      </c>
+      <c r="S63" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="T63" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="U63" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="V63" s="1">
+        <v>96</v>
+      </c>
+      <c r="W63" s="1">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="1">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E64" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="G64" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="H64" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="K64" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="M64" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="N64" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="O64" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="P64" s="1">
+        <v>56</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="R64" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="S64" s="1">
+        <v>67</v>
+      </c>
+      <c r="T64" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="U64" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="V64" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="W64" s="1">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>59</v>
+      </c>
+      <c r="G65" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I65" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="K65" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="L65" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="M65" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="N65" s="1">
+        <v>65.7</v>
+      </c>
+      <c r="O65" s="1">
+        <v>40</v>
+      </c>
+      <c r="P65" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="R65" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="S65" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="T65" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="U65" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="V65" s="1">
+        <v>97</v>
+      </c>
+      <c r="W65" s="1">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E66" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="G66" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="H66" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="I66" s="1">
+        <v>98.1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="L66" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="M66" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="N66" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="O66" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="P66" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="R66" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S66" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="T66" s="1">
+        <v>86</v>
+      </c>
+      <c r="U66" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="V66" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="W66" s="1">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E67" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F67" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="I67" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="J67" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="K67" s="1">
+        <v>61</v>
+      </c>
+      <c r="L67" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="M67" s="1">
+        <v>65</v>
+      </c>
+      <c r="N67" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="O67" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="P67" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="R67" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="S67" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="T67" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="U67" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="V67" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="W67" s="1">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C68" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="D68" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="H68" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="J68" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="K68" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>66</v>
+      </c>
+      <c r="M68" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="P68" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>66</v>
+      </c>
+      <c r="R68" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="S68" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="T68" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="U68" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="V68" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="W68" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C69" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E69" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="F69" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="G69" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="H69" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>79</v>
+      </c>
+      <c r="J69" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="L69" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="M69" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="N69" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="O69" s="1">
+        <v>65</v>
+      </c>
+      <c r="P69" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="R69" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="S69" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="T69" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="U69" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="V69" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="W69" s="1">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C70" s="1">
+        <v>50</v>
+      </c>
+      <c r="D70" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>71</v>
+      </c>
+      <c r="F70" s="1">
+        <v>58</v>
+      </c>
+      <c r="G70" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="H70" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="J70" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="K70" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="L70" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="M70" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="N70" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="O70" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P70" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="R70" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="T70" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="U70" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="V70" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="W70" s="1">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C71" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E71" s="1">
+        <v>78</v>
+      </c>
+      <c r="F71" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="H71" s="1">
+        <v>71</v>
+      </c>
+      <c r="I71" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="L71" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>64</v>
+      </c>
+      <c r="N71" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>55</v>
+      </c>
+      <c r="P71" s="1">
+        <v>57</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="R71" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="S71" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="T71" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="U71" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="V71" s="1">
+        <v>96.6</v>
+      </c>
+      <c r="W71" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C72" s="1">
+        <v>65.7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E72" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="G72" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H72" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I72" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="J72" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="K72" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="M72" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="N72" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="O72" s="1">
+        <v>61</v>
+      </c>
+      <c r="P72" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>53</v>
+      </c>
+      <c r="R72" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="S72" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="T72" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="U72" s="1">
+        <v>90.9</v>
+      </c>
+      <c r="V72" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="W72" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C73" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>64</v>
+      </c>
+      <c r="G73" s="1">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H73" s="1">
+        <v>73</v>
+      </c>
+      <c r="I73" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="J73" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="K73" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="L73" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="M73" s="1">
+        <v>65.7</v>
+      </c>
+      <c r="N73" s="1">
+        <v>70</v>
+      </c>
+      <c r="O73" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="P73" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="R73" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="S73" s="1">
+        <v>55</v>
+      </c>
+      <c r="T73" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="U73" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="V73" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="W73" s="1">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
+      <c r="D74" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="E74" s="1">
+        <v>89.2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="G74" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="K74" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="L74" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="N74" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="O74" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="P74" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="R74" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="S74" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="T74" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="U74" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="V74" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="W74" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C75" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D75" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E75" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="F75" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I75" s="1">
+        <v>92.3</v>
+      </c>
+      <c r="J75" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K75" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="L75" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="M75" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="N75" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="O75" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="P75" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="R75" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="S75" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="T75" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="U75" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="V75" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="W75" s="1">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E76" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="G76" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H76" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="J76" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="K76" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="M76" s="1">
+        <v>51</v>
+      </c>
+      <c r="N76" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="O76" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="P76" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="R76" s="1">
+        <v>19</v>
+      </c>
+      <c r="S76" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="T76" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="U76" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="V76" s="1">
+        <v>92.9</v>
+      </c>
+      <c r="W76" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C77" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F77" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="G77" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="H77" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="K77" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="L77" s="1">
+        <v>50</v>
+      </c>
+      <c r="M77" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="N77" s="1">
+        <v>65</v>
+      </c>
+      <c r="O77" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="P77" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>50</v>
+      </c>
+      <c r="R77" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="S77" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="T77" s="1">
+        <v>86</v>
+      </c>
+      <c r="U77" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="V77" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="W77" s="1">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C78" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E78" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="F78" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="G78" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="H78" s="1">
+        <v>81</v>
+      </c>
+      <c r="I78" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="J78" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="K78" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="L78" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="M78" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="N78" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="O78" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="P78" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="R78" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="S78" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="T78" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="U78" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="V78" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="W78" s="1">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="E79" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="G79" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H79" s="1">
+        <v>73</v>
+      </c>
+      <c r="I79" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="J79" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="K79" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="L79" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="M79" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="N79" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="O79" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="P79" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="R79" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="S79" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="T79" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="U79" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="V79" s="1">
+        <v>97</v>
+      </c>
+      <c r="W79" s="1">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="D80" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H80" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="I80" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J80" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="K80" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L80" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M80" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="N80" s="1">
+        <v>64</v>
+      </c>
+      <c r="O80" s="1">
+        <v>40</v>
+      </c>
+      <c r="P80" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="R80" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="S80" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="T80" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="U80" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="V80" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="W80" s="1">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C81" s="1">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1">
+        <v>74</v>
+      </c>
+      <c r="E81" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="F81" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G81" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>97</v>
+      </c>
+      <c r="I81" s="1">
+        <v>92</v>
+      </c>
+      <c r="J81" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K81" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="L81" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="M81" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="N81" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="O81" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="P81" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="R81" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="S81" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="T81" s="1">
+        <v>89</v>
+      </c>
+      <c r="U81" s="1">
+        <v>92</v>
+      </c>
+      <c r="V81" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="W81" s="1">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E82" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="F82" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="G82" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="H82" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="I82" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="J82" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="K82" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="M82" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="N82" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="O82" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="P82" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="R82" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="S82" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="T82" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="U82" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="V82" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="W82" s="1">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C83" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>71</v>
+      </c>
+      <c r="E83" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F83" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G83" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="J83" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="L83" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="M83" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="N83" s="1">
+        <v>69</v>
+      </c>
+      <c r="O83" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="P83" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="S83" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="T83" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="U83" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="V83" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="W83" s="1">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C84" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D84" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="G84" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="H84" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="I84" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="J84" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="K84" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="L84" s="1">
+        <v>56</v>
+      </c>
+      <c r="M84" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="N84" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="O84" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="P84" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>56</v>
+      </c>
+      <c r="R84" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="S84" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="T84" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="U84" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="V84" s="1">
+        <v>97.2</v>
+      </c>
+      <c r="W84" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C85" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="D85" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="E85" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="I85" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="J85" s="1">
+        <v>56</v>
+      </c>
+      <c r="K85" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="L85" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="N85" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O85" s="1">
+        <v>43</v>
+      </c>
+      <c r="P85" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="R85" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="S85" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="T85" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="U85" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="V85" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="W85" s="1">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C86" s="1">
+        <v>56</v>
+      </c>
+      <c r="D86" s="1">
+        <v>72</v>
+      </c>
+      <c r="E86" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="F86" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H86" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="I86" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="J86" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="K86" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="L86" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="M86" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="O86" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="P86" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="R86" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S86" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="T86" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="U86" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="V86" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="W86" s="1">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C87" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="D87" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E87" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="I87" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="J87" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="K87" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="L87" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="M87" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="N87" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="O87" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="P87" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="R87" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="S87" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="T87" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="U87" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="V87" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="W87" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C88" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="D88" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="E88" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="I88" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="K88" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="L88" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="M88" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>90.9</v>
+      </c>
+      <c r="O88" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="P88" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="R88" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="S88" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="T88" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="U88" s="1">
+        <v>97.4</v>
+      </c>
+      <c r="V88" s="1">
+        <v>97.4</v>
+      </c>
+      <c r="W88" s="1">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C89" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D89" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E89" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="G89" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H89" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="I89" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>55</v>
+      </c>
+      <c r="K89" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="L89" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="M89" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N89" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="P89" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="R89" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="S89" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="T89" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="U89" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="V89" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="W89" s="1">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C90" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F90" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>74</v>
+      </c>
+      <c r="H90" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I90" s="1">
+        <v>97.2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>60</v>
+      </c>
+      <c r="K90" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="L90" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="M90" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="N90" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="O90" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="P90" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="R90" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="S90" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="T90" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="U90" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="V90" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="W90" s="1">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C91" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E91" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>77</v>
+      </c>
+      <c r="I91" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="J91" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="K91" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="M91" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="N91" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="O91" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="P91" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="R91" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="S91" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="T91" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="U91" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="V91" s="1">
+        <v>96.7</v>
+      </c>
+      <c r="W91" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C92" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E92" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F92" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G92" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="H92" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="I92" s="1">
+        <v>92.2</v>
+      </c>
+      <c r="J92" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="K92" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="L92" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="N92" s="1">
+        <v>61</v>
+      </c>
+      <c r="O92" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="P92" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="R92" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="S92" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="T92" s="1">
+        <v>91.5</v>
+      </c>
+      <c r="U92" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="V92" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="W92" s="1">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C93" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="E93" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F93" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G93" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="H93" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="I93" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="J93" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="K93" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="L93" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="M93" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="N93" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="O93" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="P93" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="R93" s="1">
+        <v>36</v>
+      </c>
+      <c r="S93" s="1">
+        <v>51</v>
+      </c>
+      <c r="T93" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="U93" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="V93" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="W93" s="1">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C94" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="D94" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="E94" s="1">
+        <v>82</v>
+      </c>
+      <c r="F94" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="G94" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I94" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="J94" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="K94" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="L94" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="M94" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="N94" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="O94" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P94" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="R94" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="S94" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="T94" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="U94" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="V94" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="W94" s="1">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C95" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E95" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="G95" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="H95" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I95" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="J95" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="K95" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="L95" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="M95" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="N95" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="O95" s="1">
+        <v>40</v>
+      </c>
+      <c r="P95" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="R95" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="S95" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="T95" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="U95" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="V95" s="1">
+        <v>96.2</v>
+      </c>
+      <c r="W95" s="1">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C96" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F96" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>74</v>
+      </c>
+      <c r="H96" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="I96" s="1">
+        <v>98.1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="K96" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="L96" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="M96" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="N96" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="O96" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="P96" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="R96" s="1">
+        <v>29</v>
+      </c>
+      <c r="S96" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="T96" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="U96" s="1">
+        <v>89</v>
+      </c>
+      <c r="V96" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="W96" s="1">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C97" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D97" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E97" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>84</v>
+      </c>
+      <c r="H97" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I97" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="L97" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="M97" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="N97" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="O97" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="P97" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="R97" s="1">
+        <v>33</v>
+      </c>
+      <c r="S97" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="T97" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="U97" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="V97" s="1">
+        <v>96</v>
+      </c>
+      <c r="W97" s="1">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C98" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D98" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>88.3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G98" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="H98" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I98" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="J98" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="K98" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="L98" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="N98" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="O98" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="P98" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="R98" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="S98" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="T98" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="U98" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="V98" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="W98" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C99" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E99" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="F99" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H99" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I99" s="1">
+        <v>84</v>
+      </c>
+      <c r="J99" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="K99" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="L99" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="N99" s="1">
+        <v>73</v>
+      </c>
+      <c r="O99" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="P99" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="R99" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="S99" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="T99" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="U99" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="V99" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="W99" s="1">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C100" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="E100" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="F100" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="G100" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H100" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="I100" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="J100" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="K100" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="L100" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="M100" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="N100" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="P100" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="R100" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="S100" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="T100" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="U100" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="V100" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="W100" s="1">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C101" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D101" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="G101" s="1">
+        <v>76</v>
+      </c>
+      <c r="H101" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I101" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="J101" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="K101" s="1">
+        <v>73</v>
+      </c>
+      <c r="L101" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="M101" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="N101" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="O101" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="P101" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="R101" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="S101" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="T101" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="V101" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="W101" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C102" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D102" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="F102" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H102" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="I102" s="1">
+        <v>88</v>
+      </c>
+      <c r="J102" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="M102" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="N102" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="O102" s="1">
+        <v>65</v>
+      </c>
+      <c r="P102" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>49</v>
+      </c>
+      <c r="R102" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="S102" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="T102" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="U102" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="V102" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="W102" s="1">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C103" s="1">
+        <v>65</v>
+      </c>
+      <c r="D103" s="1">
+        <v>71</v>
+      </c>
+      <c r="E103" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="F103" s="1">
+        <v>64</v>
+      </c>
+      <c r="G103" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H103" s="1">
+        <v>70</v>
+      </c>
+      <c r="I103" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="J103" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="K103" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L103" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N103" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="O103" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="P103" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="R103" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="S103" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="T103" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="U103" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="V103" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="W103" s="1">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C104" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D104" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="E104" s="1">
+        <v>89.2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="G104" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="H104" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="I104" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="J104" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K104" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="L104" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="M104" s="1">
+        <v>81</v>
+      </c>
+      <c r="N104" s="1">
+        <v>86</v>
+      </c>
+      <c r="O104" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="P104" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="R104" s="1">
+        <v>62</v>
+      </c>
+      <c r="S104" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="T104" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="U104" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="V104" s="1">
+        <v>95</v>
+      </c>
+      <c r="W104" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C105" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D105" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E105" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F105" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="G105" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="H105" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="I105" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="J105" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="K105" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="L105" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="M105" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="N105" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="O105" s="1">
+        <v>63</v>
+      </c>
+      <c r="P105" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="R105" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="S105" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="T105" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="U105" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="V105" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="W105" s="1">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C106" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="D106" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="G106" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="H106" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I106" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="J106" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="K106" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="L106" s="1">
+        <v>40</v>
+      </c>
+      <c r="M106" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="N106" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="O106" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="P106" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>40</v>
+      </c>
+      <c r="R106" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="S106" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="T106" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="U106" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="V106" s="1">
+        <v>92.4</v>
+      </c>
+      <c r="W106" s="1">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C107" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="D107" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="E107" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F107" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="G107" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="H107" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I107" s="1">
+        <v>92.9</v>
+      </c>
+      <c r="J107" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="K107" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="L107" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="M107" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="N107" s="1">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="O107" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="P107" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="R107" s="1">
+        <v>31</v>
+      </c>
+      <c r="S107" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="T107" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="U107" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="V107" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="W107" s="1">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C108" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="D108" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="E108" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="H108" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="I108" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="J108" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="K108" s="1">
+        <v>74</v>
+      </c>
+      <c r="L108" s="1">
+        <v>62</v>
+      </c>
+      <c r="M108" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="N108" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O108" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="P108" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>62</v>
+      </c>
+      <c r="R108" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S108" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="T108" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="U108" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="V108" s="1">
+        <v>96.1</v>
+      </c>
+      <c r="W108" s="1">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C109" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="F109" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="G109" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="H109" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="I109" s="1">
+        <v>85.1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="K109" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="L109" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="M109" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="N109" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="O109" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="P109" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="R109" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="S109" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="T109" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="U109" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="V109" s="1">
+        <v>96.6</v>
+      </c>
+      <c r="W109" s="1">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C110" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E110" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I110" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="J110" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="K110" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="L110" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="M110" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="N110" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="O110" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="P110" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="R110" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="S110" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="T110" s="1">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="U110" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="V110" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="W110" s="1">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C111" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D111" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>77.7</v>
+      </c>
+      <c r="F111" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="G111" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="I111" s="1">
+        <v>92.7</v>
+      </c>
+      <c r="J111" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="K111" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="L111" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="N111" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="O111" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="P111" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="R111" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="S111" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="T111" s="1">
+        <v>90</v>
+      </c>
+      <c r="U111" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="V111" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="W111" s="1">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C112" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="D112" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="E112" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="G112" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="H112" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I112" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="J112" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="K112" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="L112" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="M112" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="N112" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="O112" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="P112" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="R112" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="S112" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="T112" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="U112" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="V112" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="W112" s="1">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C113" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="D113" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="G113" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H113" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="I113" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="J113" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="K113" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="L113" s="1">
+        <v>73</v>
+      </c>
+      <c r="M113" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="N113" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="O113" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="P113" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>73</v>
+      </c>
+      <c r="R113" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="S113" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="T113" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="U113" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="V113" s="1">
+        <v>96</v>
+      </c>
+      <c r="W113" s="1">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C114" s="1">
+        <v>74</v>
+      </c>
+      <c r="D114" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="F114" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G114" s="1">
+        <v>87</v>
+      </c>
+      <c r="H114" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I114" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="J114" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K114" s="1">
+        <v>78</v>
+      </c>
+      <c r="L114" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="M114" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="N114" s="1">
+        <v>78</v>
+      </c>
+      <c r="O114" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="P114" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="R114" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="S114" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="T114" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="U114" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="V114" s="1">
+        <v>96.7</v>
+      </c>
+      <c r="W114" s="1">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C115" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="D115" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E115" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="F115" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="G115" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I115" s="1">
+        <v>88</v>
+      </c>
+      <c r="J115" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="K115" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="L115" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="M115" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="N115" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="O115" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="P115" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="R115" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="S115" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="T115" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="U115" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="V115" s="1">
+        <v>91</v>
+      </c>
+      <c r="W115" s="1">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C116" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E116" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="G116" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="H116" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="I116" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="J116" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="K116" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="L116" s="1">
+        <v>51</v>
+      </c>
+      <c r="M116" s="1">
+        <v>46</v>
+      </c>
+      <c r="N116" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="O116" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="P116" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>51</v>
+      </c>
+      <c r="R116" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="S116" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="T116" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="U116" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="V116" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="W116" s="1">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C117" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="E117" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="F117" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="G117" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="I117" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="K117" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="L117" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="M117" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="N117" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O117" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="P117" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="R117" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S117" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="T117" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="U117" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="V117" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="W117" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C118" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="D118" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E118" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="F118" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G118" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="H118" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="I118" s="1">
+        <v>93.9</v>
+      </c>
+      <c r="J118" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K118" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="L118" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="M118" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="N118" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="O118" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="P118" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="R118" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="S118" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="T118" s="1">
+        <v>93</v>
+      </c>
+      <c r="U118" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="V118" s="1">
+        <v>97</v>
+      </c>
+      <c r="W118" s="1">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C119" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D119" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="F119" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="G119" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="H119" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="I119" s="1">
+        <v>96.7</v>
+      </c>
+      <c r="J119" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="K119" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="L119" s="1">
+        <v>45</v>
+      </c>
+      <c r="M119" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="N119" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="O119" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="P119" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>45</v>
+      </c>
+      <c r="R119" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="S119" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="T119" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="U119" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="V119" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="W119" s="1">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C120" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E120" s="1">
+        <v>78.8</v>
+      </c>
+      <c r="F120" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="G120" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="H120" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="I120" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="J120" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="K120" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="L120" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="M120" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="N120" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="O120" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="P120" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="R120" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="S120" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="T120" s="1">
+        <v>85</v>
+      </c>
+      <c r="U120" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="V120" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="W120" s="1">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C121" s="1">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D121" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E121" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F121" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G121" s="1">
+        <v>80.5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I121" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="J121" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K121" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="L121" s="1">
+        <v>66</v>
+      </c>
+      <c r="M121" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="N121" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="O121" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="P121" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>66</v>
+      </c>
+      <c r="R121" s="1">
+        <v>23</v>
+      </c>
+      <c r="S121" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="T121" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="U121" s="1">
+        <v>94.3</v>
+      </c>
+      <c r="V121" s="1">
+        <v>96.6</v>
+      </c>
+      <c r="W121" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C122" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="D122" s="1">
+        <v>75.3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="F122" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G122" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="H122" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="I122" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="J122" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="K122" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="L122" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="M122" s="1">
+        <v>56</v>
+      </c>
+      <c r="N122" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="O122" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="P122" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="R122" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S122" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="T122" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="U122" s="1">
+        <v>91</v>
+      </c>
+      <c r="V122" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="W122" s="1">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C123" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="E123" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="F123" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="G123" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="H123" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="I123" s="1">
+        <v>94</v>
+      </c>
+      <c r="J123" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="K123" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="L123" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M123" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="N123" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="O123" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="P123" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="R123" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="S123" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="T123" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="U123" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="V123" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="W123" s="1">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C124" s="1">
+        <v>55</v>
+      </c>
+      <c r="D124" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E124" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="F124" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="G124" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="H124" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I124" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="J124" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="K124" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="L124" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="N124" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="O124" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P124" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="R124" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="S124" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="T124" s="1">
+        <v>75.3</v>
+      </c>
+      <c r="U124" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="V124" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="W124" s="1">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C125" s="1">
+        <v>49</v>
+      </c>
+      <c r="D125" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>85.2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="G125" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="H125" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="I125" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="K125" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="L125" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="M125" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="N125" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="O125" s="1">
+        <v>40</v>
+      </c>
+      <c r="P125" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="R125" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="S125" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="T125" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="U125" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="V125" s="1">
+        <v>73</v>
+      </c>
+      <c r="W125" s="1">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C126" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E126" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F126" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="G126" s="1">
+        <v>73.8</v>
+      </c>
+      <c r="H126" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="I126" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="J126" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="K126" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="L126" s="1">
+        <v>50</v>
+      </c>
+      <c r="M126" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="N126" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="O126" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="P126" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="R126" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="S126" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="T126" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="U126" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="V126" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="W126" s="1">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C127" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="D127" s="1">
+        <v>70</v>
+      </c>
+      <c r="E127" s="1">
+        <v>79</v>
+      </c>
+      <c r="F127" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I127" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="J127" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="K127" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="L127" s="1">
+        <v>53</v>
+      </c>
+      <c r="M127" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="N127" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="O127" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="P127" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="R127" s="1">
+        <v>19</v>
+      </c>
+      <c r="S127" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="T127" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="U127" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="V127" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="W127" s="1">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C128" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="E128" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="F128" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G128" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="H128" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="I128" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="J128" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="K128" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="L128" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M128" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="N128" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="O128" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="P128" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="R128" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="S128" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="T128" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="U128" s="1">
+        <v>92.2</v>
+      </c>
+      <c r="V128" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="W128" s="1">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C129" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>71.2</v>
+      </c>
+      <c r="E129" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="F129" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="I129" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="J129" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="K129" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="L129" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="M129" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="N129" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="O129" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="P129" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="R129" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="S129" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="T129" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="U129" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="V129" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="W129" s="1">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C130" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="E130" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F130" s="1">
+        <v>57</v>
+      </c>
+      <c r="G130" s="1">
+        <v>75.3</v>
+      </c>
+      <c r="H130" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="I130" s="1">
+        <v>84.9</v>
+      </c>
+      <c r="J130" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="K130" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="L130" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="M130" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="N130" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="O130" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="P130" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="R130" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="S130" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="T130" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="U130" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="V130" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="W130" s="1">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C131" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D131" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E131" s="1">
+        <v>77</v>
+      </c>
+      <c r="F131" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G131" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H131" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I131" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="J131" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="K131" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="L131" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="M131" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="N131" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="O131" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="P131" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="R131" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S131" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="T131" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="U131" s="1">
+        <v>92.4</v>
+      </c>
+      <c r="V131" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W131" s="1">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C132" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="E132" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F132" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="G132" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H132" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I132" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="J132" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="K132" s="1">
+        <v>66</v>
+      </c>
+      <c r="L132" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="M132" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="N132" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="O132" s="1">
+        <v>65</v>
+      </c>
+      <c r="P132" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="R132" s="1">
+        <v>29</v>
+      </c>
+      <c r="S132" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="T132" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="U132" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="V132" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="W132" s="1">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C133" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="D133" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F133" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="G133" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H133" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="I133" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="J133" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="K133" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="L133" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="M133" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="N133" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="O133" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="P133" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="R133" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="S133" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="T133" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="U133" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="V133" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="W133" s="1">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C134" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D134" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="F134" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="G134" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I134" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="J134" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="K134" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="L134" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="M134" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="N134" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="O134" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="P134" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>86.1</v>
+      </c>
+      <c r="R134" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="S134" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="T134" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="U134" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="V134" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="W134" s="1">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C135" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="E135" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F135" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="H135" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="I135" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="J135" s="1">
+        <v>62</v>
+      </c>
+      <c r="K135" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="L135" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="M135" s="1">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="N135" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="O135" s="1">
+        <v>63</v>
+      </c>
+      <c r="P135" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="R135" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="S135" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="T135" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="U135" s="1">
+        <v>91</v>
+      </c>
+      <c r="V135" s="1">
+        <v>74</v>
+      </c>
+      <c r="W135" s="1">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C136" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="D136" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="E136" s="1">
+        <v>75</v>
+      </c>
+      <c r="F136" s="1">
+        <v>60.3</v>
+      </c>
+      <c r="G136" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="H136" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I136" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="J136" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="K136" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="L136" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="M136" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="N136" s="1">
+        <v>53</v>
+      </c>
+      <c r="O136" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="P136" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R136" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="S136" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="T136" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="U136" s="1">
+        <v>85.1</v>
+      </c>
+      <c r="V136" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="W136" s="1">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C137" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="D137" s="1">
+        <v>66</v>
+      </c>
+      <c r="E137" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="F137" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="G137" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="H137" s="1">
+        <v>51</v>
+      </c>
+      <c r="I137" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="J137" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="K137" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="L137" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="N137" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="O137" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="P137" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R137" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="S137" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="T137" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="U137" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="V137" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="W137" s="1">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C138" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D138" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="F138" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="G138" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="H138" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="I138" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="J138" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="K138" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="L138" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="M138" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="N138" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="O138" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="P138" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="R138" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="S138" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="T138" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="U138" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="V138" s="1">
+        <v>79</v>
+      </c>
+      <c r="W138" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C139" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="D139" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="E139" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F139" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="G139" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H139" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="I139" s="1">
+        <v>86</v>
+      </c>
+      <c r="J139" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="K139" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="L139" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="M139" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="N139" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="O139" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="P139" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="R139" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="S139" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="T139" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="U139" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="V139" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="W139" s="1">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C140" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="D140" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E140" s="1">
+        <v>86</v>
+      </c>
+      <c r="F140" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="G140" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="H140" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="I140" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="J140" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="K140" s="1">
+        <v>65</v>
+      </c>
+      <c r="L140" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M140" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="N140" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="O140" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="P140" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>34</v>
+      </c>
+      <c r="R140" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="S140" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="T140" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="U140" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="V140" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="W140" s="1">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C141" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E141" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="F141" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="G141" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="H141" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="I141" s="1">
+        <v>92.5</v>
+      </c>
+      <c r="J141" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="K141" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="L141" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="M141" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="N141" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="O141" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="P141" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="R141" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="S141" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="T141" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="U141" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="V141" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="W141" s="1">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C142" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E142" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="F142" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="G142" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="H142" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I142" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="J142" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="K142" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="L142" s="1">
+        <v>40</v>
+      </c>
+      <c r="M142" s="1">
+        <v>62</v>
+      </c>
+      <c r="N142" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="O142" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="P142" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="R142" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="S142" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="T142" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="U142" s="1">
+        <v>80</v>
+      </c>
+      <c r="V142" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="W142" s="1">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C143" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="D143" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="E143" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="F143" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="G143" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I143" s="1">
+        <v>91.3</v>
+      </c>
+      <c r="J143" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K143" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="L143" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="M143" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="N143" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="O143" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="P143" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>30</v>
+      </c>
+      <c r="R143" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="S143" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="T143" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="U143" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="V143" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="W143" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C144" s="1">
+        <v>74</v>
+      </c>
+      <c r="D144" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="F144" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G144" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="H144" s="1">
+        <v>77.7</v>
+      </c>
+      <c r="I144" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="J144" s="1">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K144" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L144" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="N144" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="O144" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="P144" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="R144" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="S144" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="T144" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="U144" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="V144" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="W144" s="1">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C145" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="D145" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="E145" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F145" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="G145" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="H145" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="I145" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="J145" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="K145" s="1">
+        <v>62.3</v>
+      </c>
+      <c r="L145" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="M145" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="N145" s="1">
+        <v>63</v>
+      </c>
+      <c r="O145" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="P145" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="R145" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="S145" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="T145" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="U145" s="1">
+        <v>85.8</v>
+      </c>
+      <c r="V145" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="W145" s="1">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C146" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="D146" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E146" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="F146" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="G146" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="H146" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="I146" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="J146" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="K146" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="L146" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="M146" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="N146" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="O146" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="P146" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="R146" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S146" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="T146" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="U146" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="V146" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="W146" s="1">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C147" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="D147" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E147" s="1">
+        <v>78.8</v>
+      </c>
+      <c r="F147" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="G147" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="H147" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I147" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="K147" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="L147" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="M147" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="N147" s="1">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="O147" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="P147" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="R147" s="1">
+        <v>28</v>
+      </c>
+      <c r="S147" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="T147" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="U147" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="V147" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="W147" s="1">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C148" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D148" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E148" s="1">
+        <v>91.9</v>
+      </c>
+      <c r="F148" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G148" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="H148" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="I148" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="J148" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="K148" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L148" s="1">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="M148" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="N148" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="O148" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="P148" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="R148" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="S148" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="T148" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="U148" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="V148" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="W148" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C149" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="D149" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E149" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="F149" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="G149" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="H149" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="I149" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="J149" s="1">
+        <v>55</v>
+      </c>
+      <c r="K149" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L149" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="M149" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="N149" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="O149" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="P149" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="R149" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="S149" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="T149" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="U149" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="V149" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="W149" s="1">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C150" s="1">
+        <v>53</v>
+      </c>
+      <c r="D150" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="E150" s="1">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="I150" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="J150" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K150" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="L150" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="M150" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="N150" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="O150" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="P150" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>31</v>
+      </c>
+      <c r="R150" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="S150" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="T150" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="U150" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="V150" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="W150" s="1">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C151" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="D151" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E151" s="1">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F151" s="1">
+        <v>69.5</v>
+      </c>
+      <c r="G151" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="H151" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I151" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="J151" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="K151" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="L151" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="M151" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="N151" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O151" s="1">
+        <v>66.3</v>
+      </c>
+      <c r="P151" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="R151" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="S151" s="1">
+        <v>70.2</v>
+      </c>
+      <c r="T151" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="U151" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="V151" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="W151" s="1">
+        <v>98.4</v>
       </c>
     </row>
   </sheetData>
